--- a/GuiToSpreadsheet/spreadsheet.xlsx
+++ b/GuiToSpreadsheet/spreadsheet.xlsx
@@ -375,13 +375,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="30" customWidth="1" style="1" min="1" max="1025"/>
     <col width="10" customWidth="1" style="2" min="2" max="2"/>
@@ -393,113 +393,150 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Course</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Semester</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Form Number</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Contact Number</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Email id</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Address</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Alan Aardvark</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>Chainsaw management</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>1b</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>0712345678</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>rgdfsgd@asd.com</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>The Cottage, ST5 1CQ</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Zebedee Zebra</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>Zoology</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>3C</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>07889123456</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>zebby@zooshit.com</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>London Zoo, Maida Vale, N1 1FG</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Timmy Cat</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eating Studies</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>079876543</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>foodcat@grub.co.uk</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>99 East Street, Cow Mop</t>
         </is>
       </c>
     </row>
